--- a/AmazonPackageProject/src/test/resources/utils/Amazone.xlsx
+++ b/AmazonPackageProject/src/test/resources/utils/Amazone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -66,13 +66,16 @@
     <t>Expected String</t>
   </si>
   <si>
-    <t>Gaurav Garje</t>
-  </si>
-  <si>
     <t>example.amazon@gmail.com</t>
   </si>
   <si>
     <t>Abcdef123</t>
+  </si>
+  <si>
+    <t>Virat Kohli</t>
+  </si>
+  <si>
+    <t>Hello, Virat</t>
   </si>
 </sst>
 </file>
@@ -424,9 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -496,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,19 +527,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>8421352651</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
